--- a/biology/Zoologie/Bradysaurus/Bradysaurus.xlsx
+++ b/biology/Zoologie/Bradysaurus/Bradysaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bradysaurus est un genre éteint de sauropsides de la famille des Pareiasauridae qui mesurait 2,50 mètres de long[1] et pesait une demi-tonne à une tonne. Le crâne était large (environ 42 à 48 centimètres de long), large et arrondi à l'avant. Il était grossièrement sculpté et noueux, les sutures entre les os n'étant pas clairement visibles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bradysaurus est un genre éteint de sauropsides de la famille des Pareiasauridae qui mesurait 2,50 mètres de long et pesait une demi-tonne à une tonne. Le crâne était large (environ 42 à 48 centimètres de long), large et arrondi à l'avant. Il était grossièrement sculpté et noueux, les sutures entre les os n'étant pas clairement visibles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fossiles n'ont été retrouvés que dans le Permien (Capitanien) d'Afrique du Sud, ils datent d'environ entre 264,28 et 259,51 millions d'années.
 </t>
@@ -542,7 +556,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dents marginales étaient hautes, avec seulement quelques cuspides, ce qui est une caractéristique primitive. Les pieds étaient courts et larges, le nombre de phalanges étant de 2,3,3,3,2 à l'avant et de 2,3,3,4,3 à l'arrière. Le corps entier est protégé par des plaques cutanées, bien que celles-ci ne soient pas aussi épaisses ou lourdes que chez les formes plus avancées.
 </t>
@@ -573,7 +589,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradysaurus est le seul membre de la sous-famille des Bradysaurinae. C'est le pariasaure le plus primitif connu. Il peut être considéré comme un type ancestral à partir duquel les autres pariasaures se sont développés. Ses grandes dimensions montrent que, même très tôt dans leur histoire évolutive, ces animaux avaient déjà atteint une taille optimale. Même plus tard, les formes plus avancées, comme Scutosaurus, n'étaient pas plus grandes. L’avantage d’une taille importante était de se protéger contre les prédateurs et de maintenir une température corporelle stable (gigantothermie).
 Kuhn, en 1969, compte neuf espèces pour ce genre, mais il s'agit certainement d'un nombre excessif. Boonstra, en 1969, ne distingue que quatre espèces sur la base de la structure de la dent, dont deux que Kuhn situe dans le genre Embrithosaurus. Les genres Brachypareia, Bradysuchus, Koalemasaurus et Platyoropha sont des synonymes de Bradysaurus.
